--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -4,61 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="欄位說明APF0301MM11" sheetId="14" r:id="rId4"/>
-    <sheet name="APF0301MM11" sheetId="33" r:id="rId5"/>
-    <sheet name="method-bsLoadAPF0301MM1Qry" sheetId="15" r:id="rId6"/>
+    <sheet name="畫面_APF0301MM1" sheetId="33" r:id="rId4"/>
+    <sheet name="欄位_APF0301MM1" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">欄位說明APF0301MM11!$A$1:$J$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'method-bsLoadAPF0301MM1Qry'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0301MM1!$A$1:$J$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">欄位說明APF0301MM11!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0301MM1!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="162">
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_cust_id(客戶代號)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_center_id(登入者所屬營業所ID)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>底層取得</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>依照客戶代號與訂單日期，自DB中查詢未集貨且無取消的電子訂單資料，並顯示在Grid中。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>依照輸入的客戶代號與訂單日期，自DB中查詢一般電子訂單資料，並顯示在Grid中。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>print_date(訂單日期)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -70,293 +36,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回傳型別</t>
-  </si>
-  <si>
-    <t>序號</t>
-  </si>
-  <si>
-    <t>方法的業務流程說明</t>
-  </si>
-  <si>
-    <t>方法的設計流程說明</t>
-  </si>
-  <si>
-    <t>方法內自訂的錯誤</t>
-  </si>
-  <si>
-    <t>自訂錯誤一覽表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方法名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>參數名稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>英</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>態</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>參</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>說</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>輸入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>輸出</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>說</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>明</t>
-    </r>
-  </si>
-  <si>
-    <t>DataSet</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯誤代碼</t>
-  </si>
-  <si>
-    <t>類型</t>
-  </si>
-  <si>
-    <r>
-      <t>補充說明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>可填可不填，因詳細資料於錯誤代碼清單中已經詳述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DB型態及長度</t>
@@ -378,18 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>查無資料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息：查無資料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsLoadEO0107MM1Qry</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -488,33 +157,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>//define which columns will be selected
-判斷e_order.bill_id是否已經存在tran_bill中
- select bill_id from tran_bill where bill_id=DataSet.bill_id and seq_no='0' 
-1.不存在--&gt;利用DataSet中的電子訂單序號到DB中抓取電子訂單資料為參數，轉入至CD模組的託運單資料表(tran_bill)，新增成功回傳true；失敗回傳false且rollback
-2.存在--&gt;需在判斷該tran_bill是否已經集貨
-select col_create_date,col_del_flag form tran_bill where bill_id=DataSet.bill_id and seq_no='0'
-a.已集貨:col_create_date is not null&amp;&amp;col_del_flag='0'--&gt;出現錯誤訊息"XXX託運單號已集貨"
-b.未集貨--&gt;修改該託運單號的集貨資料，修改成功回傳true；失敗回傳false且rollback
-a.SER_ID, a.ORDER_TYPE, a.BILL_ID, a.ORDER_ID, a.CUST_ID, a.TEMP_TYPE, a.DST_TYPE, 
-a.SPEC_TYPE, a.IF_AGENCY, a.GOODS_PRICE, a.IF_REACHPAID, a.PAID_TYPE, a.REC_NAME, 
-a.REC_TEL, a.REC_MOBILE, a.REC_ZIP_CODE, a.REC_ADDR, a.SNT_NAME, a.SNT_TEL, 
-a.SNT_MOBILE, a.SNT_ZIP_CODE, a.SNT_ADDR, a.PRINT_DATE, a.CLC_PERIOD, a.RCV_PERIOD, a.MEMBER_ID, a.GOODS_NAME, a.IF_BREAKABLE,  a.IF_PRECISION, a.MEMO, a.ROUTE_ID, a.COL_CENTER_ID, a.DEST_CENTER_ID, b.CUST_NAME, c.DEP_NAME, d.TEMP_NAME, e.DST_NAME, f.DIM_NAME  
-FROM E_Order a,Cust_Today_V b,Dep_Today_V c,Temp_Master d,Dst_Master e,Dim_Master f 
-WHERE a.CUST_ID=b.cust_id(+) and  
-a.DEST_CENTER_ID=c.dep_id(+) and 
-a.TEMP_TYPE=d.TEMP_ID(+) and d.eff_s_date&lt;=SYSDATE and d.eff_e_date&gt;=SYSDATE and 
-a.DST_TYPE=e.DST_ID(+) and e.eff_s_date&lt;=SYSDATE and e.eff_e_date&gt;=SYSDATE and 
-a.SPEC_TYPE=f.DIM_ID(+) and f.eff_s_date&lt;=SYSDATE and f.eff_e_date&gt;=SYSDATE and 
-a.IF_CANCEL='N' and a.IF_TRAN_BILL='N' and 
-a.COL_CENTER_ID=:user_center_id and a.CUST_ID=:input_cust_id and a.PRINT_DATE=:print_date"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -542,7 +184,7 @@
   </si>
   <si>
     <t>回總表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>畫面示意圖</t>
@@ -613,17 +255,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>將已檢核無誤的密碼相關資料存入DB並顯示「密碼變更成功」訊息及執行系統紀錄更新Log(DB)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 登入時需輸入密碼驗證。
-2. 登入時，可按下密碼提示，提醒忘記的密碼。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>用途分類</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -640,27 +273,27 @@
       </rPr>
       <t>名稱</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>說明</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能簡述</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>連結</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -676,11 +309,7 @@
       </rPr>
       <t>總表</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>method-bsLoadAPF0301MM1Qry</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>舊密碼</t>
@@ -700,7 +329,7 @@
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string 50</t>
@@ -773,10 +402,6 @@
   <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>密碼維護
@@ -834,16 +459,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息"密碼變更失敗，舊密碼輸入不正確，
-請再試一次或聯絡密碼管理者"。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息"密碼變更失敗，帳號、密碼不得相同」，並將cursor停留於該欄位且顏色反橘。
-新密碼不得與前次相同，若有誤，出現錯誤訊息"「密碼變更失敗，新密碼不得與前次相同」，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>無。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -880,10 +495,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>『APF0101MM1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0301MM1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -920,56 +531,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)
-密碼提示不可與新密碼相同，若有誤，出現錯誤訊息"「「密碼變更失敗，密碼提示和新密碼必須不相同」，並將cursor停留於該欄位且顏色反橘</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>帳號設定維護主頁面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回總表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回總表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最小長度限制:英文8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
-必須是八碼以上，若有誤，出現錯誤訊息"密碼變更失敗，新密碼長度必須是八碼以上"，並將cursor停留於該欄位且顏色反橘。
-必須是英數字夾雜，若有誤，出現錯誤訊息"密碼變更失敗，新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最小長度限制:英8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。
-確認密碼必須和新密碼相同，若有誤，出現錯誤訊息"「「密碼變更失敗，確認密碼欄位和新密碼必須相同」，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟APF0101MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>欄位說明APF0301MM10</t>
-  </si>
-  <si>
-    <t>APF0301MM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1.使用者由功能清單點選帳號設定時
@@ -991,6 +562,86 @@
       <t>檢查時機：各欄位輸入後</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欄位_APF0301MM1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0301MM1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 提供使用者維護密碼與自訂密碼提示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。
+確認密碼必須和新密碼相同，若有誤，出現錯誤訊息「「密碼變更失敗，確認密碼欄位和新密碼必須相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文20(控制項控制)
+密碼提示不可與新密碼相同，若有誤，出現錯誤訊息"「「密碼變更失敗，密碼提示和新密碼必須不相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息"密碼變更失敗，舊密碼輸入不正確，
+請再試一次或聯絡密碼管理者"，訊息內容請參考APF訊息表APF_NO 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息"密碼變更失敗，帳號、密碼不得相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。
+新密碼不得與前次相同，若有誤，出現錯誤訊息"「密碼變更失敗，新密碼不得與前次相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0301MM1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0301MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英文8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，，並將cursor停留於該欄位且顏色反橘。
+必須是八碼以上，若有誤，出現錯誤訊息"密碼變更失敗，新密碼長度必須是八碼以上"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。
+必須是英數字夾雜，若有誤，出現錯誤訊息"密碼變更失敗，新密碼必須是英數字夾雜"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應務必完成密碼更新提示訊息，訊息內容請參考APF訊息表 APF_NO 42
+其他狀況的使用者，可以選擇不完成本作業，即中途關掉本頁籤離開，回到原本選取帳號設定畫面。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1107,14 +758,34 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>，系統會強制進入此
-   作業</t>
+      <t>，系統會回應必須立即更新密碼提示訊息，強制使用者進入此作業，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>APF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>訊息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> APF_NO 41</t>
     </r>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應，「請務必完成密碼更新，以確保資訊安全」提示訊息，其他狀況的使用者，可以選擇不完成本作業，即中途關掉本頁籤離開，回到原本選取帳號設定畫面。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1124,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1172,23 +843,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -1370,7 +1024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1548,24 +1202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="double">
@@ -1649,26 +1285,20 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,46 +1311,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1733,602 +1324,481 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3890,13 +3360,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>18181</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>170581</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3930,14 +3400,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3975,518 +3445,6 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>81890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53315</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10465" name="群組 1"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="81890"/>
-          <a:ext cx="13554075" cy="523875"/>
-          <a:chOff x="0" y="57150"/>
-          <a:chExt cx="11744325" cy="514350"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10466" name="Line 8"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="57150"/>
-            <a:ext cx="11744325" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150" cmpd="thinThick">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10252" name="Rectangle 12"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="133350"/>
-            <a:ext cx="1171575" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>大項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Online</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>作業</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10253" name="Rectangle 13"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1019175" y="133350"/>
-            <a:ext cx="1971675" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>中項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>使用者管理</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10254" name="Rectangle 14"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2990850" y="133350"/>
-            <a:ext cx="3228975" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>細項</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0301 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>帳號設定</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10255" name="Rectangle 15"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6229350" y="133350"/>
-            <a:ext cx="3914775" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>標題</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0301MM1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>帳號設定</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>主頁面</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10256" name="Rectangle 16"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10039350" y="133350"/>
-            <a:ext cx="981075" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作人</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>馬凱林</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10257" name="Rectangle 17"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10906125" y="133350"/>
-            <a:ext cx="838200" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作日</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>20131004</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4505,7 +3463,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9472083" cy="439208"/>
+          <a:ext cx="9877425" cy="447675"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -5049,39 +4007,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>81890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>53315</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11570" name="群組 10"/>
+        <xdr:cNvPr id="10465" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9191625" cy="523875"/>
+          <a:off x="0" y="81890"/>
+          <a:ext cx="13811250" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11571" name="Line 8"/>
+          <xdr:cNvPr id="10466" name="Line 8"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5114,7 +4072,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="10252" name="Rectangle 12"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5122,7 +4080,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="0" y="133350"/>
-            <a:ext cx="1168347" cy="438150"/>
+            <a:ext cx="1171575" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5186,15 +4144,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="10253" name="Rectangle 13"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="1022304" y="133350"/>
-            <a:ext cx="1971586" cy="438150"/>
+            <a:off x="1019175" y="133350"/>
+            <a:ext cx="1971675" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5230,43 +4188,44 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>EDI </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>電子訂單</a:t>
-            </a:r>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="10254" name="Rectangle 14"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="2993890" y="133350"/>
-            <a:ext cx="3225126" cy="438150"/>
+            <a:off x="2990850" y="133350"/>
+            <a:ext cx="3228975" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5304,42 +4263,42 @@
           <a:p>
             <a:pPr rtl="0"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
                 <a:effectLst/>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>EDI0107 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+              <a:t>APF0301 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
                 <a:effectLst/>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>電子訂單集貨轉入</a:t>
+              <a:t>帳號設定</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
               <a:effectLst/>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvPr id="10255" name="Rectangle 15"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="6231186" y="133350"/>
-            <a:ext cx="3918832" cy="438150"/>
+            <a:off x="6229350" y="133350"/>
+            <a:ext cx="3914775" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5375,36 +4334,44 @@
             </a:r>
           </a:p>
           <a:p>
+            <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0301MM1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>帳號設定</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>主頁面</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:pPr algn="l" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>EO0107MM1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>電子訂單集貨轉入</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>主畫面</a:t>
-            </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -5417,15 +4384,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 16"/>
+          <xdr:cNvPr id="10256" name="Rectangle 16"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="10040485" y="133350"/>
-            <a:ext cx="985793" cy="438150"/>
+            <a:off x="10039350" y="133350"/>
+            <a:ext cx="981075" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5472,34 +4439,22 @@
                 <a:latin typeface="標楷體"/>
                 <a:ea typeface="標楷體"/>
               </a:rPr>
-              <a:t>葉芳妤</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:endParaRPr>
+              <a:t>馬凱林</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectangle 17"/>
+          <xdr:cNvPr id="10257" name="Rectangle 17"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="10904575" y="133350"/>
-            <a:ext cx="839750" cy="438150"/>
+            <a:off x="10906125" y="133350"/>
+            <a:ext cx="838200" cy="438150"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5539,25 +4494,20 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>20060221</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>20131004</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               <a:cs typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -5941,128 +4891,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="59.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="29.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="59.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
-      <c r="A2" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>86</v>
+      <c r="A2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>85</v>
+      <c r="A3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D7" s="39"/>
+      <c r="A4" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A5" s="97"/>
+      <c r="B5" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickTop="1">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="D8" s="39"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="D9" s="39"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="D10" s="39"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="D11" s="39"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="D12" s="40"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="D13" s="39"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="39"/>
+      <c r="D14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="欄位說明APF0301MM11!A1" display="View"/>
-    <hyperlink ref="D5" location="APF0301MM11!A1" display="View"/>
-    <hyperlink ref="D6" location="'method-bsLoadAPF0301MM1Qry'!A1" display="View"/>
+    <hyperlink ref="D4" location="畫面_APF0301MM11!A1" display="View"/>
+    <hyperlink ref="D5" location="欄位_APF0301MM11!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6073,226 +5012,226 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="12.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" s="98" customFormat="1" ht="16.5">
-      <c r="A5" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-    </row>
-    <row r="6" spans="1:19" s="105" customFormat="1" ht="16.5">
-      <c r="A6" s="99">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="12.75">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="12.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="12.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="12.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
+      <c r="A5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" s="40" customFormat="1" ht="16.5">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="102">
-        <v>41556</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A7" s="99"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="99"/>
-    </row>
-    <row r="8" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A8" s="99"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A9" s="99"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="99"/>
-    </row>
-    <row r="10" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A10" s="99"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="99"/>
-    </row>
-    <row r="11" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A11" s="99"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="99"/>
-    </row>
-    <row r="12" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A12" s="99"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="99"/>
-    </row>
-    <row r="13" spans="1:19" s="105" customFormat="1" ht="15.75">
-      <c r="A13" s="99"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="99"/>
-    </row>
-    <row r="19" spans="1:1" s="5" customFormat="1">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" s="5" customFormat="1">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" s="5" customFormat="1">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" s="5" customFormat="1">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1" s="5" customFormat="1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" s="5" customFormat="1">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:1" s="5" customFormat="1">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:1" s="5" customFormat="1">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="31" spans="1:1" s="5" customFormat="1">
-      <c r="A31" s="9"/>
-    </row>
-    <row r="32" spans="1:1" s="5" customFormat="1">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:1" s="5" customFormat="1">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:1" s="5" customFormat="1">
-      <c r="A34" s="9"/>
-    </row>
-    <row r="35" spans="1:1" s="5" customFormat="1">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:1" s="5" customFormat="1">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1" s="5" customFormat="1">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:1" s="5" customFormat="1">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1" s="5" customFormat="1">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1" s="5" customFormat="1">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1" s="5" customFormat="1">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1" s="5" customFormat="1">
-      <c r="A42" s="9"/>
+      <c r="B6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="37">
+        <v>41563</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A7" s="34"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A8" s="34"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A9" s="34"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A10" s="34"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A11" s="34"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" s="40" customFormat="1" ht="15.75">
+      <c r="A13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="19" spans="1:1" s="4" customFormat="1">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" s="4" customFormat="1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" s="4" customFormat="1">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" s="4" customFormat="1">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1" s="4" customFormat="1">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1" s="4" customFormat="1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" s="4" customFormat="1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1" s="4" customFormat="1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="31" spans="1:1" s="4" customFormat="1">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" s="4" customFormat="1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" s="4" customFormat="1">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" s="4" customFormat="1">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" s="4" customFormat="1">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" s="4" customFormat="1">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" s="4" customFormat="1">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" s="4" customFormat="1">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" s="4" customFormat="1">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" s="4" customFormat="1">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" s="4" customFormat="1">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" s="4" customFormat="1">
+      <c r="A42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6309,316 +5248,312 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
-    <col min="2" max="2" width="17.75" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="11" width="9" style="28"/>
-    <col min="12" max="12" width="10" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="17.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15" style="13" customWidth="1"/>
+    <col min="5" max="11" width="9" style="13"/>
+    <col min="12" max="12" width="10" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="47" t="s">
-        <v>150</v>
+      <c r="M1" s="110" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="48"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="5" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114"/>
-    </row>
-    <row r="6" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-    </row>
-    <row r="7" spans="1:13" s="124" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
-    </row>
-    <row r="8" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" s="124" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-    </row>
-    <row r="10" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="127" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-    </row>
-    <row r="11" spans="1:13" s="124" customFormat="1" ht="16.5">
-      <c r="A11" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-    </row>
-    <row r="12" spans="1:13" s="111" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-    </row>
-    <row r="13" spans="1:13" s="124" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="120" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-    </row>
-    <row r="14" spans="1:13" s="111" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123"/>
-    </row>
-    <row r="15" spans="1:13" s="111" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="129"/>
-    </row>
-    <row r="16" spans="1:13" s="130" customFormat="1" ht="16.5">
-      <c r="A16" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-    </row>
-    <row r="17" s="130" customFormat="1" ht="21" customHeight="1"/>
-    <row r="18" s="130" customFormat="1" ht="21" customHeight="1"/>
-    <row r="19" s="130" customFormat="1" ht="21" customHeight="1"/>
-    <row r="20" s="130" customFormat="1" ht="16.5"/>
-    <row r="21" s="130" customFormat="1" ht="16.5"/>
-    <row r="22" s="130" customFormat="1" ht="16.5"/>
-    <row r="23" s="130" customFormat="1" ht="16.5"/>
-    <row r="24" s="130" customFormat="1" ht="16.5"/>
-    <row r="25" s="130" customFormat="1" ht="16.5"/>
-    <row r="26" s="130" customFormat="1" ht="16.5"/>
-    <row r="27" s="130" customFormat="1" ht="16.5"/>
-    <row r="28" s="130" customFormat="1" ht="16.5"/>
-    <row r="29" s="130" customFormat="1" ht="16.5"/>
-    <row r="30" s="130" customFormat="1" ht="16.5"/>
-    <row r="31" s="130" customFormat="1" ht="16.5"/>
-    <row r="32" s="130" customFormat="1" ht="16.5"/>
-    <row r="33" spans="1:12" s="130" customFormat="1" ht="88.5" customHeight="1"/>
-    <row r="34" spans="1:12" s="130" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-    </row>
-    <row r="35" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="36" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="37" spans="1:12" s="131" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A37" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
-    </row>
-    <row r="38" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="39" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="40" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="41" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="42" spans="1:12" s="130" customFormat="1" ht="16.5"/>
-    <row r="43" spans="1:12" s="130" customFormat="1" ht="16.5"/>
+      <c r="M3" s="111"/>
+    </row>
+    <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+    </row>
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A11" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A13" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+    </row>
+    <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+    </row>
+    <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A15" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="118"/>
+    </row>
+    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
+      <c r="A16" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+    </row>
+    <row r="17" s="45" customFormat="1" ht="16.5"/>
+    <row r="18" s="45" customFormat="1" ht="16.5"/>
+    <row r="19" s="45" customFormat="1" ht="16.5"/>
+    <row r="20" s="45" customFormat="1" ht="16.5"/>
+    <row r="21" s="45" customFormat="1" ht="16.5"/>
+    <row r="22" s="45" customFormat="1" ht="16.5"/>
+    <row r="23" s="45" customFormat="1" ht="16.5"/>
+    <row r="24" s="45" customFormat="1" ht="16.5"/>
+    <row r="25" s="45" customFormat="1" ht="16.5"/>
+    <row r="26" s="45" customFormat="1" ht="16.5"/>
+    <row r="27" s="45" customFormat="1" ht="16.5"/>
+    <row r="28" s="45" customFormat="1" ht="88.5" customHeight="1"/>
+    <row r="29" s="45" customFormat="1" ht="16.5"/>
+    <row r="30" s="45" customFormat="1" ht="16.5"/>
+    <row r="31" s="45" customFormat="1" ht="16.5"/>
+    <row r="32" s="45" customFormat="1" ht="16.5"/>
+    <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="34" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
+    <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A38" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
+    </row>
+    <row r="39" spans="1:12" ht="21" customHeight="1"/>
+    <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A40" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="107"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:L8"/>
@@ -6634,10 +5569,10 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A34:L34"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A13:E13"/>
@@ -6665,10 +5600,10 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6686,14 +5621,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6709,1119 +5644,738 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="4.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="25" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.25" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" thickTop="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A7" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A8" s="133">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-    </row>
-    <row r="9" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-    </row>
-    <row r="10" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A10" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
-    </row>
-    <row r="11" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A11" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A12" s="141">
-        <v>1</v>
-      </c>
-      <c r="B12" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A13" s="133">
-        <v>2</v>
-      </c>
-      <c r="B13" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="142"/>
-      <c r="I13" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="144"/>
-    </row>
-    <row r="14" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A14" s="95">
-        <v>3</v>
-      </c>
-      <c r="B14" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="142"/>
-    </row>
-    <row r="15" spans="1:23" s="130" customFormat="1" ht="16.5">
-      <c r="A15" s="95">
-        <v>4</v>
-      </c>
-      <c r="B15" s="142" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="142" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="142" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="142" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="142"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A10:J10"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
-詳細設計書</oddHeader>
-    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="10" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="29" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" s="29" customFormat="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:17" s="29" customFormat="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" s="29" customFormat="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" s="149" customFormat="1" ht="16.5">
-      <c r="A5" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
-    </row>
-    <row r="6" spans="1:17" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
-    </row>
-    <row r="7" spans="1:17" s="153" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
-    </row>
-    <row r="8" spans="1:17" s="153" customFormat="1" ht="15.75">
-      <c r="A8" s="154"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="158"/>
-    </row>
-    <row r="9" spans="1:17" s="153" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
-    </row>
-    <row r="10" spans="1:17" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
-    </row>
-    <row r="11" spans="1:17" s="165" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
-    </row>
-    <row r="12" spans="1:17" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="148"/>
-    </row>
-    <row r="13" spans="1:17" s="165" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-    </row>
-    <row r="14" spans="1:17" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148"/>
-    </row>
-    <row r="15" spans="1:17" s="153" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="167" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169"/>
-    </row>
-    <row r="16" spans="1:17" s="153" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="171" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" s="14" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
+      <c r="A5" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
+    </row>
+    <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+    </row>
+    <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+    </row>
+    <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A11" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+    </row>
+    <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+    </row>
+    <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A13" s="147" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+    </row>
+    <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A15" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
+    </row>
+    <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
+    </row>
+    <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A17" s="62">
+        <v>1</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+    </row>
+    <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
+      <c r="A18" s="62">
+        <v>2</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+    </row>
+    <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A19" s="62">
+        <v>3</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+    </row>
+    <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
+      <c r="A20" s="62">
+        <v>4</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
-    </row>
-    <row r="17" spans="1:12" s="153" customFormat="1" ht="51" customHeight="1">
-      <c r="A17" s="171">
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
+      <c r="A21" s="148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A22" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
+    </row>
+    <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
+    </row>
+    <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A24" s="62">
         <v>1</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B24" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+    </row>
+    <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A25" s="62">
+        <v>2</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+    </row>
+    <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="62">
+        <v>3</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+    </row>
+    <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A27" s="62">
+        <v>4</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+    </row>
+    <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
+    </row>
+    <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+    </row>
+    <row r="31" spans="1:12" s="58" customFormat="1" ht="33" customHeight="1">
+      <c r="A31" s="72">
+        <v>1</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="175" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="177"/>
-    </row>
-    <row r="18" spans="1:12" s="153" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A18" s="171">
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+    </row>
+    <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82"/>
+    </row>
+    <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
+      <c r="A33" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
+    </row>
+    <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
+      <c r="A34" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A35" s="62">
+        <v>1</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="86"/>
+      <c r="E35" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+    </row>
+    <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A36" s="87">
         <v>2</v>
       </c>
-      <c r="B18" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="175" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
-    </row>
-    <row r="19" spans="1:12" s="153" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A19" s="171">
-        <v>3</v>
-      </c>
-      <c r="B19" s="171" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="175" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
-    </row>
-    <row r="20" spans="1:12" s="153" customFormat="1" ht="69" customHeight="1">
-      <c r="A20" s="171">
-        <v>4</v>
-      </c>
-      <c r="B20" s="171" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="175" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177"/>
-    </row>
-    <row r="21" spans="1:12" s="153" customFormat="1" ht="15.75">
-      <c r="A21" s="178" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
-    </row>
-    <row r="22" spans="1:12" s="153" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="167" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
-    </row>
-    <row r="23" spans="1:12" s="153" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="171" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
-    </row>
-    <row r="24" spans="1:12" s="153" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="171">
+      <c r="B36" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="137"/>
+    </row>
+    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A37" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
+    </row>
+    <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
+      <c r="A38" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="156"/>
+      <c r="D38" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
+    </row>
+    <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
+      <c r="A39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
+    </row>
+    <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A40" s="87"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
+    </row>
+    <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A41" s="87"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
+    </row>
+    <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A43" s="87"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
+    </row>
+    <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A44" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="92"/>
+    </row>
+    <row r="45" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A45" s="87">
         <v>1</v>
       </c>
-      <c r="B24" s="171" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="175" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
-    </row>
-    <row r="25" spans="1:12" s="153" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A25" s="171">
+      <c r="B45" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="167"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
+    </row>
+    <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
+      <c r="A46" s="87">
         <v>2</v>
       </c>
-      <c r="B25" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="175" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177"/>
-    </row>
-    <row r="26" spans="1:12" s="153" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="171">
-        <v>3</v>
-      </c>
-      <c r="B26" s="171" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="175" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
-    </row>
-    <row r="27" spans="1:12" s="153" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="171">
-        <v>4</v>
-      </c>
-      <c r="B27" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="175" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
-    </row>
-    <row r="28" spans="1:12" s="153" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="181"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="185"/>
-    </row>
-    <row r="29" spans="1:12" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="178" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="187"/>
-    </row>
-    <row r="30" spans="1:12" s="165" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="188" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="189" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="190" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="191" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="192" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-    </row>
-    <row r="31" spans="1:12" s="153" customFormat="1" ht="33" customHeight="1">
-      <c r="A31" s="194">
-        <v>1</v>
-      </c>
-      <c r="B31" s="195" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
-    </row>
-    <row r="32" spans="1:12" s="153" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="200"/>
-      <c r="B32" s="201"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
-    </row>
-    <row r="33" spans="1:12" s="153" customFormat="1" ht="15.75">
-      <c r="A33" s="207" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="208"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
-    </row>
-    <row r="34" spans="1:12" s="210" customFormat="1" ht="16.5">
-      <c r="A34" s="188" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="189" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="191" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="192" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-    </row>
-    <row r="35" spans="1:12" s="153" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A35" s="171">
-        <v>1</v>
-      </c>
-      <c r="B35" s="211" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="212" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="213"/>
-      <c r="E35" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-    </row>
-    <row r="36" spans="1:12" s="153" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A36" s="214">
-        <v>2</v>
-      </c>
-      <c r="B36" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="153" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="216" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
-    </row>
-    <row r="37" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A37" s="217" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="218"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="219"/>
-    </row>
-    <row r="38" spans="1:12" s="153" customFormat="1" ht="31.5">
-      <c r="A38" s="214" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="220" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="221"/>
-      <c r="D38" s="216" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="222"/>
-      <c r="F38" s="222"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="223"/>
-    </row>
-    <row r="39" spans="1:12" s="165" customFormat="1" ht="16.5">
-      <c r="A39" s="224"/>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
-      <c r="G39" s="225"/>
-      <c r="H39" s="225"/>
-      <c r="I39" s="225"/>
-      <c r="J39" s="226"/>
-    </row>
-    <row r="40" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A40" s="214"/>
-      <c r="B40" s="227"/>
-      <c r="C40" s="228"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="229"/>
-      <c r="I40" s="229"/>
-      <c r="J40" s="230"/>
-    </row>
-    <row r="41" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A41" s="214"/>
-      <c r="B41" s="227"/>
-      <c r="C41" s="228"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="229"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="230"/>
-    </row>
-    <row r="42" spans="1:12" s="165" customFormat="1" ht="16.5">
-      <c r="A42" s="224"/>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="226"/>
-    </row>
-    <row r="43" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A43" s="214"/>
-      <c r="B43" s="227"/>
-      <c r="C43" s="228"/>
-      <c r="D43" s="216"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="230"/>
-    </row>
-    <row r="44" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A44" s="231" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="232"/>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="234"/>
-    </row>
-    <row r="45" spans="1:12" s="153" customFormat="1" ht="16.5">
-      <c r="A45" s="214">
-        <v>1</v>
-      </c>
-      <c r="B45" s="235" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="164"/>
-    </row>
-    <row r="46" spans="1:12" s="238" customFormat="1" ht="16.5">
-      <c r="A46" s="214">
-        <v>2</v>
-      </c>
-      <c r="B46" s="235" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="237"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="237"/>
-      <c r="F46" s="237"/>
-      <c r="G46" s="237"/>
-      <c r="H46" s="237"/>
-      <c r="I46" s="237"/>
-      <c r="J46" s="237"/>
+      <c r="B46" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7878,392 +6432,378 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J3"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9" style="15"/>
-    <col min="5" max="5" width="10.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="4.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" thickTop="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="47" t="s">
+    <row r="1" spans="1:23" ht="15" thickTop="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A8" s="47">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A10" s="180" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+    </row>
+    <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A12" s="52">
+        <v>1</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="12.75">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="12.75">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="12.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="66"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="18">
+      <c r="F12" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A13" s="47">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="18">
+      <c r="B13" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="F13" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="65" t="s">
+      <c r="G13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A14" s="30">
+        <v>3</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:23" s="45" customFormat="1" ht="16.5">
+      <c r="A15" s="30">
         <v>4</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:19" ht="189.75" customHeight="1">
-      <c r="A13" s="18">
-        <v>2</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="55">
-        <v>3</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="55"/>
-      <c r="B15" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="55"/>
-      <c r="B16" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="55"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="55"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="55"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="55"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="B15" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="J1:J3" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="3" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
 詳細設計書</oddHeader>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -631,12 +631,6 @@
 必須是八碼以上，若有誤，出現錯誤訊息"密碼變更失敗，新密碼長度必須是八碼以上"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。
 必須是英數字夾雜，若有誤，出現錯誤訊息"密碼變更失敗，新密碼必須是英數字夾雜"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應務必完成密碼更新提示訊息，訊息內容請參考APF訊息表 APF_NO 42
@@ -785,6 +779,12 @@
       </rPr>
       <t xml:space="preserve"> APF_NO 41</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1559,6 +1559,66 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,65 +1628,119 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1637,6 +1751,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1668,129 +1791,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5250,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -5266,237 +5266,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="101" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="111"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="111"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -5522,37 +5522,45 @@
       <c r="A38" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="107"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -5569,14 +5577,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5646,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5677,7 +5677,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="8"/>
@@ -5698,7 +5698,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -5711,7 +5711,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -5726,152 +5726,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="A11" s="176" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="147" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="A13" s="163" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -5880,16 +5880,16 @@
       <c r="B16" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -5898,16 +5898,16 @@
       <c r="B17" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="C17" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
@@ -5916,16 +5916,16 @@
       <c r="B18" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
@@ -5934,16 +5934,16 @@
       <c r="B19" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -5952,44 +5952,44 @@
       <c r="B20" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -5998,16 +5998,16 @@
       <c r="B23" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6016,16 +6016,16 @@
       <c r="B24" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6034,16 +6034,16 @@
       <c r="B25" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6052,16 +6052,16 @@
       <c r="B26" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6070,16 +6070,16 @@
       <c r="B27" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6094,18 +6094,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
@@ -6120,14 +6120,14 @@
       <c r="D30" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6140,14 +6140,14 @@
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6162,18 +6162,18 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
@@ -6188,14 +6188,14 @@
       <c r="D34" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="159" t="s">
+      <c r="E34" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6210,14 +6210,14 @@
         <v>37</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
@@ -6230,106 +6230,106 @@
         <v>37</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="151" t="s">
+      <c r="E36" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="151" t="s">
+      <c r="C38" s="151"/>
+      <c r="D38" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="166"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
@@ -6352,14 +6352,14 @@
       <c r="B45" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
@@ -6368,39 +6368,22 @@
       <c r="B46" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -6415,11 +6398,28 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6467,7 +6467,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>109</v>
       </c>
       <c r="L1" s="11"/>
@@ -6494,7 +6494,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -6512,7 +6512,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -33,10 +33,6 @@
     <rPh sb="1" eb="2">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -82,37 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>html型態及長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>功能 Use Case</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -151,10 +116,6 @@
   <si>
     <t>操作功能描述</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大處理人數 -  3000人
@@ -500,30 +461,6 @@
   </si>
   <si>
     <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -786,6 +723,49 @@
 最大長度限制:英文50(控制項控制)
 為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヨブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1559,12 +1539,39 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,30 +1587,12 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,14 +1608,122 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1634,6 +1731,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,154 +1767,10 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4893,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4908,7 +4888,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -4916,52 +4896,52 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
       <c r="A2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="96" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1">
       <c r="A5" s="97"/>
       <c r="B5" s="23" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickTop="1">
@@ -5000,8 +4980,8 @@
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0301MM11!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0301MM11!A1" display="View"/>
+    <hyperlink ref="D4" location="畫面_APF0301MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="欄位_APF0301MM1!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5089,16 +5069,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5114,10 +5094,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5250,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5266,237 +5246,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="101" t="s">
-        <v>108</v>
+      <c r="M1" s="110" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="102"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="102"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+    </row>
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
-    </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A11" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-    </row>
-    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="A13" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="115"/>
+      <c r="A15" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="118"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+        <v>63</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -5520,47 +5500,39 @@
     <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
     <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
+        <v>100</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+        <v>112</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -5577,6 +5549,14 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5646,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5677,8 +5657,8 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="101" t="s">
-        <v>26</v>
+      <c r="K1" s="110" t="s">
+        <v>20</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -5698,7 +5678,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -5711,7 +5691,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -5726,360 +5706,360 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
+      <c r="A5" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="160" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="A10" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="A11" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="A12" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="A13" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="A14" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="156"/>
+      <c r="A15" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>78</v>
+      </c>
+      <c r="C18" s="144" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="130" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="A21" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="A22" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+        <v>75</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+        <v>78</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+        <v>80</v>
+      </c>
+      <c r="C26" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6094,40 +6074,40 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="130" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
+      <c r="A29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+        <v>90</v>
+      </c>
+      <c r="E30" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6136,18 +6116,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
+      <c r="E31" s="161" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6162,40 +6142,40 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="A33" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6204,136 +6184,136 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
+      <c r="E35" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
         <v>2</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
+      <c r="E36" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="137"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="147" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="A37" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
+        <v>26</v>
+      </c>
+      <c r="B38" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="156"/>
+      <c r="D38" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
+      <c r="A39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="139"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
@@ -6350,40 +6330,57 @@
         <v>1</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="167"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
         <v>2</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
+        <v>37</v>
+      </c>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -6398,28 +6395,11 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6436,7 +6416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -6467,8 +6447,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="101" t="s">
-        <v>109</v>
+      <c r="K1" s="110" t="s">
+        <v>97</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -6494,7 +6474,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -6512,7 +6492,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -6557,7 +6537,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="177" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B6" s="178"/>
       <c r="C6" s="178"/>
@@ -6577,31 +6557,31 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -6635,7 +6615,7 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A10" s="180" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B10" s="181"/>
       <c r="C10" s="181"/>
@@ -6649,31 +6629,31 @@
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>2</v>
-      </c>
       <c r="H11" s="46" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -6684,26 +6664,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" s="53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -6712,26 +6692,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -6740,26 +6720,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -6768,26 +6748,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
   </bookViews>
@@ -10,21 +15,22 @@
     <sheet name="總表" sheetId="34" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0301MM1" sheetId="33" r:id="rId4"/>
-    <sheet name="欄位_APF0301MM1" sheetId="14" r:id="rId5"/>
+    <sheet name="IPO" sheetId="35" r:id="rId4"/>
+    <sheet name="畫面_APF0301MM1" sheetId="33" r:id="rId5"/>
+    <sheet name="欄位_APF0301MM1" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0301MM1!$A$1:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0301MM1!$A$1:$J$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0301MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0301MM1!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -766,6 +772,22 @@
   <si>
     <t>輸入/輸出</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1539,6 +1561,66 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,65 +1630,119 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1617,6 +1753,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1648,129 +1793,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1791,6 +1813,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3359,7 +3384,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3367,6 +3392,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3400,7 +3436,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3408,6 +3444,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3419,6 +3466,595 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0301 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>帳號設定</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131021</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3987,7 +4623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4871,7 +5507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -4922,32 +5558,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="23" t="s">
+    <row r="6" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A6" s="97"/>
+      <c r="B6" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="27" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16.5" thickTop="1">
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
@@ -4960,28 +5605,32 @@
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0301MM1!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0301MM1!A1" display="View"/>
+    <hyperlink ref="D5:D6" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0301MM1!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0301MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5246,237 +5895,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="111"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="111"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -5502,37 +6151,45 @@
       <c r="A38" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="107"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -5549,14 +6206,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5623,6 +6272,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="102"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="6145" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="6145" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
@@ -5657,7 +6370,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="8"/>
@@ -5678,7 +6391,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -5691,7 +6404,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -5706,152 +6419,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -5860,16 +6573,16 @@
       <c r="B16" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -5878,16 +6591,16 @@
       <c r="B17" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
@@ -5896,16 +6609,16 @@
       <c r="B18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
@@ -5914,16 +6627,16 @@
       <c r="B19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -5932,44 +6645,44 @@
       <c r="B20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -5978,16 +6691,16 @@
       <c r="B23" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -5996,16 +6709,16 @@
       <c r="B24" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6014,16 +6727,16 @@
       <c r="B25" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6032,16 +6745,16 @@
       <c r="B26" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6050,16 +6763,16 @@
       <c r="B27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6074,18 +6787,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
@@ -6100,14 +6813,14 @@
       <c r="D30" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6120,14 +6833,14 @@
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6142,18 +6855,18 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
@@ -6168,14 +6881,14 @@
       <c r="D34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="159" t="s">
+      <c r="E34" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6190,14 +6903,14 @@
         <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
@@ -6210,106 +6923,106 @@
         <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="151" t="s">
+      <c r="E36" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="151" t="s">
+      <c r="C38" s="151"/>
+      <c r="D38" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="166"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
@@ -6332,14 +7045,14 @@
       <c r="B45" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
@@ -6348,39 +7061,22 @@
       <c r="B46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -6395,11 +7091,28 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6412,7 +7125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
@@ -6447,7 +7160,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>97</v>
       </c>
       <c r="L1" s="11"/>
@@ -6474,7 +7187,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -6492,7 +7205,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -1561,12 +1561,39 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,30 +1609,12 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1621,14 +1630,122 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1636,6 +1753,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,154 +1789,10 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3417,13 +3417,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>30307</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>750743</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>128155</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5509,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -5879,8 +5879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5895,237 +5895,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="110" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="102"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="102"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="99" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="99" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="121" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="121" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="115"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="118"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -6151,45 +6151,37 @@
       <c r="A38" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -6206,6 +6198,14 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6255,7 +6255,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>59</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
@@ -6282,15 +6282,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="110" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="102"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="102"/>
+      <c r="P3" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6370,7 +6370,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="110" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="8"/>
@@ -6391,7 +6391,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6404,7 +6404,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6419,152 +6419,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="156"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -6573,16 +6573,16 @@
       <c r="B16" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -6591,16 +6591,16 @@
       <c r="B17" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
@@ -6609,16 +6609,16 @@
       <c r="B18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
@@ -6627,16 +6627,16 @@
       <c r="B19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -6645,44 +6645,44 @@
       <c r="B20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -6691,16 +6691,16 @@
       <c r="B23" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6709,16 +6709,16 @@
       <c r="B24" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6727,16 +6727,16 @@
       <c r="B25" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6745,16 +6745,16 @@
       <c r="B26" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6763,16 +6763,16 @@
       <c r="B27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6787,18 +6787,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
@@ -6813,14 +6813,14 @@
       <c r="D30" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="133" t="s">
+      <c r="E30" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6833,14 +6833,14 @@
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6855,18 +6855,18 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
@@ -6881,14 +6881,14 @@
       <c r="D34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="133" t="s">
+      <c r="E34" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6903,14 +6903,14 @@
         <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
@@ -6923,106 +6923,106 @@
         <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="137" t="s">
+      <c r="E36" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="137"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="150" t="s">
+      <c r="B38" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="137" t="s">
+      <c r="C38" s="156"/>
+      <c r="D38" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
+      <c r="A39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="139"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
@@ -7045,14 +7045,14 @@
       <c r="B45" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
@@ -7061,22 +7061,39 @@
       <c r="B46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7091,28 +7108,11 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7160,7 +7160,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="110" t="s">
         <v>97</v>
       </c>
       <c r="L1" s="11"/>
@@ -7187,7 +7187,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7205,7 +7205,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -770,10 +770,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -788,6 +784,9 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1561,6 +1560,66 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,65 +1629,119 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1639,6 +1752,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1670,129 +1792,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3417,13 +3416,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>30307</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>750743</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>128155</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4648,7 +4647,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="81890"/>
-          <a:ext cx="13811250" cy="523875"/>
+          <a:ext cx="14144625" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5560,14 +5559,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
@@ -5879,7 +5878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -5895,237 +5894,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="111"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="111"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -6151,37 +6150,45 @@
       <c r="A38" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="107"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -6198,14 +6205,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6282,15 +6281,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="110" t="s">
-        <v>124</v>
+      <c r="P1" s="101" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="111"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="111"/>
+      <c r="P3" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6370,7 +6369,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="8"/>
@@ -6391,7 +6390,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6404,7 +6403,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6419,152 +6418,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -6573,16 +6572,16 @@
       <c r="B16" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -6591,16 +6590,16 @@
       <c r="B17" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
@@ -6609,16 +6608,16 @@
       <c r="B18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
@@ -6627,16 +6626,16 @@
       <c r="B19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -6645,44 +6644,44 @@
       <c r="B20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -6691,16 +6690,16 @@
       <c r="B23" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6709,16 +6708,16 @@
       <c r="B24" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6727,16 +6726,16 @@
       <c r="B25" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6745,16 +6744,16 @@
       <c r="B26" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6763,16 +6762,16 @@
       <c r="B27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6787,18 +6786,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
@@ -6813,14 +6812,14 @@
       <c r="D30" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6833,14 +6832,14 @@
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6855,18 +6854,18 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
@@ -6881,14 +6880,14 @@
       <c r="D34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="159" t="s">
+      <c r="E34" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6903,14 +6902,14 @@
         <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="161" t="s">
+      <c r="E35" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
@@ -6923,106 +6922,106 @@
         <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="151" t="s">
+      <c r="E36" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="151" t="s">
+      <c r="C38" s="151"/>
+      <c r="D38" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="166"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
@@ -7045,14 +7044,14 @@
       <c r="B45" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
@@ -7061,39 +7060,22 @@
       <c r="B46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7108,11 +7090,28 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7129,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7143,7 +7142,7 @@
     <col min="6" max="6" width="17.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="10" customWidth="1"/>
     <col min="10" max="10" width="46.25" style="10" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
@@ -7160,7 +7159,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>97</v>
       </c>
       <c r="L1" s="11"/>
@@ -7187,7 +7186,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7205,7 +7204,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7294,7 +7293,7 @@
         <v>122</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7366,7 +7365,7 @@
         <v>122</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -120,10 +120,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -369,13 +365,6 @@
   <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼維護
-1.使用者輸入欲變更的密碼，系統檢核密碼強度
-2.使用者輸入密碼提示資訊，系統檢核不得與密碼相同
-3.使用者輸入密碼相關資料及完成檢核，點選儲存按鈕，系統回應新增成功訊息</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NO</t>
@@ -1294,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1560,12 +1549,39 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1581,36 +1597,12 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,14 +1612,122 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1635,6 +1735,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,154 +1771,10 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3363,13 +3346,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3415,14 +3398,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>161926</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5523,7 +5506,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5531,64 +5514,64 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
       <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1">
@@ -5717,16 +5700,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5742,10 +5725,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5876,10 +5859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5894,238 +5877,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="101" t="s">
-        <v>96</v>
+      <c r="M1" s="110" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="102"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="102"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="99" t="s">
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+    </row>
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A11" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-    </row>
-    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="112" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A13" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
-    </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-    </row>
-    <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+    </row>
+    <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A14" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-    </row>
-    <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="115"/>
-    </row>
-    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
-      <c r="A16" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-    </row>
+        <v>62</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+    </row>
+    <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
+    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
     <row r="19" s="45" customFormat="1" ht="16.5"/>
@@ -6135,53 +6088,65 @@
     <row r="23" s="45" customFormat="1" ht="16.5"/>
     <row r="24" s="45" customFormat="1" ht="16.5"/>
     <row r="25" s="45" customFormat="1" ht="16.5"/>
-    <row r="26" s="45" customFormat="1" ht="16.5"/>
+    <row r="26" s="45" customFormat="1" ht="88.5" customHeight="1"/>
     <row r="27" s="45" customFormat="1" ht="16.5"/>
-    <row r="28" s="45" customFormat="1" ht="88.5" customHeight="1"/>
+    <row r="28" s="45" customFormat="1" ht="16.5"/>
     <row r="29" s="45" customFormat="1" ht="16.5"/>
     <row r="30" s="45" customFormat="1" ht="16.5"/>
-    <row r="31" s="45" customFormat="1" ht="16.5"/>
-    <row r="32" s="45" customFormat="1" ht="16.5"/>
+    <row r="31" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="32" s="45" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="34" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="35" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
-    <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+    <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
+    <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" customHeight="1"/>
+    <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
-    </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1"/>
-    <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+        <v>110</v>
+      </c>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A36:L36"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:L11"/>
@@ -6189,22 +6154,6 @@
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6224,13 +6173,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
@@ -6249,13 +6198,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -6281,15 +6230,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="101" t="s">
-        <v>123</v>
+      <c r="P1" s="110" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="102"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="102"/>
+      <c r="P3" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6369,8 +6318,8 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="101" t="s">
-        <v>20</v>
+      <c r="K1" s="110" t="s">
+        <v>19</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -6390,7 +6339,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6403,7 +6352,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6418,360 +6367,360 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+    </row>
+    <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
-    </row>
-    <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
-    </row>
-    <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-    </row>
-    <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+    </row>
+    <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A11" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+    </row>
+    <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-    </row>
-    <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
-    </row>
-    <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+    </row>
+    <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A13" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-    </row>
-    <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-    </row>
-    <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="156"/>
+      <c r="A15" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>75</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
       <c r="A18" s="62">
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>76</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
       <c r="A19" s="62">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>77</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+        <v>79</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="A21" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="A22" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+        <v>75</v>
+      </c>
+      <c r="C24" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+        <v>76</v>
+      </c>
+      <c r="C25" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+        <v>78</v>
+      </c>
+      <c r="C26" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+        <v>80</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6786,40 +6735,40 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
+      <c r="A29" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="D30" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="E30" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6828,18 +6777,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="122" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
+      <c r="E31" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6854,40 +6803,40 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="A33" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="D34" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="E34" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="133" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6896,136 +6845,136 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
+      <c r="E35" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
         <v>2</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="137" t="s">
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
+    </row>
+    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A37" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
-    </row>
-    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="154"/>
+      <c r="D38" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
+      <c r="A39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="169"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="169"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="139"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="164"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
@@ -7042,40 +6991,57 @@
         <v>1</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="165"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
         <v>2</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7090,28 +7056,11 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7128,7 +7077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -7159,8 +7108,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="101" t="s">
-        <v>97</v>
+      <c r="K1" s="110" t="s">
+        <v>95</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7186,7 +7135,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7204,7 +7153,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7248,18 +7197,18 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="177" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="A6" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -7269,19 +7218,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7290,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7326,34 +7275,34 @@
       <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
-      <c r="A10" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
+      <c r="A10" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7362,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7376,26 +7325,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7404,13 +7353,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>2</v>
@@ -7423,7 +7372,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7432,13 +7381,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>2</v>
@@ -7451,7 +7400,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -7460,26 +7409,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>68</v>
-      </c>
       <c r="E15" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="G15" s="53" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
@@ -25,12 +20,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0301MM1!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -120,6 +115,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -367,6 +366,13 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>密碼維護
+1.使用者輸入欲變更的密碼，系統檢核密碼強度
+2.使用者輸入密碼提示資訊，系統檢核不得與密碼相同
+3.使用者輸入密碼相關資料及完成檢核，點選儲存按鈕，系統回應新增成功訊息</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -512,30 +518,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入型態:string
-最小長度限制:英8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。
-確認密碼必須和新密碼相同，若有誤，出現錯誤訊息「「密碼變更失敗，確認密碼欄位和新密碼必須相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)
-密碼提示不可與新密碼相同，若有誤，出現錯誤訊息"「「密碼變更失敗，密碼提示和新密碼必須不相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息"密碼變更失敗，舊密碼輸入不正確，
-請再試一次或聯絡密碼管理者"，訊息內容請參考APF訊息表APF_NO 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息"密碼變更失敗，帳號、密碼不得相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。
-新密碼不得與前次相同，若有誤，出現錯誤訊息"「密碼變更失敗，新密碼不得與前次相同」，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>『APF0301MM1』Form</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -544,25 +526,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最小長度限制:英文8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，，並將cursor停留於該欄位且顏色反橘。
-必須是八碼以上，若有誤，出現錯誤訊息"密碼變更失敗，新密碼長度必須是八碼以上"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。
-必須是英數字夾雜，若有誤，出現錯誤訊息"密碼變更失敗，新密碼必須是英數字夾雜"，訊息內容請參考APF訊息表APF_NO 4，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應務必完成密碼更新提示訊息，訊息內容請參考APF訊息表 APF_NO 42
@@ -759,6 +728,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -775,7 +748,40 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出/必填</t>
+    <t>輸入型態:string
+最小長度限制:英8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。
+確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "舊密碼輸入不正確，請再試一次或聯絡密碼管理者"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文20(控制項控制)
+密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "密碼提示和新密碼必須不相同"，並將cursor停留於該欄位且顏色反橘</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英文8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，，並將cursor停留於該欄位且顏色反橘。
+必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
+必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "帳號、密碼不得相同"，並將cursor停留於該欄位且顏色反橘。
+新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼不得與前次相同"，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 1</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1602,6 +1608,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3346,14 +3358,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3366,7 +3378,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3374,17 +3386,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3398,14 +3399,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>161926</xdr:rowOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3418,7 +3419,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3426,17 +3427,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3475,7 +3465,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3483,17 +3473,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4630,7 +4609,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="81890"/>
-          <a:ext cx="14144625" cy="523875"/>
+          <a:ext cx="13811250" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5506,7 +5485,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5514,64 +5493,64 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1">
@@ -5700,16 +5679,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5725,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5859,10 +5838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5878,7 +5857,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
       <c r="M1" s="110" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5904,20 +5883,20 @@
       <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
+      <c r="A5" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="108" t="s">
@@ -5939,14 +5918,14 @@
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
       <c r="A7" s="104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
       <c r="D7" s="105"/>
       <c r="E7" s="105"/>
       <c r="F7" s="106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="106"/>
       <c r="H7" s="106"/>
@@ -5975,14 +5954,14 @@
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="105"/>
       <c r="C9" s="105"/>
       <c r="D9" s="105"/>
       <c r="E9" s="105"/>
       <c r="F9" s="106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
@@ -6011,7 +5990,7 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
       <c r="A11" s="104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="105"/>
       <c r="C11" s="105"/>
@@ -6045,14 +6024,14 @@
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A13" s="104" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="105"/>
       <c r="D13" s="105"/>
       <c r="E13" s="105"/>
       <c r="F13" s="106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="106"/>
       <c r="H13" s="106"/>
@@ -6061,9 +6040,9 @@
       <c r="K13" s="106"/>
       <c r="L13" s="107"/>
     </row>
-    <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
+    <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B14" s="106"/>
       <c r="C14" s="106"/>
@@ -6077,8 +6056,38 @@
       <c r="K14" s="106"/>
       <c r="L14" s="107"/>
     </row>
-    <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
-    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
+    <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A15" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="118"/>
+    </row>
+    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
+      <c r="A16" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+    </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
     <row r="19" s="45" customFormat="1" ht="16.5"/>
@@ -6088,65 +6097,69 @@
     <row r="23" s="45" customFormat="1" ht="16.5"/>
     <row r="24" s="45" customFormat="1" ht="16.5"/>
     <row r="25" s="45" customFormat="1" ht="16.5"/>
-    <row r="26" s="45" customFormat="1" ht="88.5" customHeight="1"/>
+    <row r="26" s="45" customFormat="1" ht="16.5"/>
     <row r="27" s="45" customFormat="1" ht="16.5"/>
-    <row r="28" s="45" customFormat="1" ht="16.5"/>
+    <row r="28" s="45" customFormat="1" ht="88.5" customHeight="1"/>
     <row r="29" s="45" customFormat="1" ht="16.5"/>
     <row r="30" s="45" customFormat="1" ht="16.5"/>
-    <row r="31" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="32" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="31" s="45" customFormat="1" ht="16.5"/>
+    <row r="32" s="45" customFormat="1" ht="16.5"/>
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
-    <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-    </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1"/>
-    <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
+    <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
+    </row>
+    <row r="39" spans="1:12" ht="21" customHeight="1"/>
+    <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A40" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A38:L38"/>
+  <mergeCells count="24">
+    <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A38:L38"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:L11"/>
@@ -6173,14 +6186,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6198,14 +6211,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6231,7 +6244,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="110" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -6287,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6319,7 +6332,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -6367,114 +6380,114 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
+      <c r="A5" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="A10" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="A11" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
+      <c r="A12" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="145" t="s">
-        <v>112</v>
+      <c r="A13" s="147" t="s">
+        <v>108</v>
       </c>
       <c r="B13" s="106"/>
       <c r="C13" s="106"/>
@@ -6487,240 +6500,240 @@
       <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="A14" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="138"/>
+      <c r="A15" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
-    </row>
-    <row r="18" spans="1:12" s="58" customFormat="1" ht="136.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+    </row>
+    <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="142" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-    </row>
-    <row r="19" spans="1:12" s="58" customFormat="1" ht="103.5" customHeight="1">
+        <v>78</v>
+      </c>
+      <c r="C18" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+    </row>
+    <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="146" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="A21" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="138"/>
+      <c r="A22" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
+        <v>75</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+        <v>78</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+        <v>80</v>
+      </c>
+      <c r="C26" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6735,40 +6748,40 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="146" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="A29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="157" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+        <v>90</v>
+      </c>
+      <c r="E30" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6777,18 +6790,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="159" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6803,40 +6816,40 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="170" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="A33" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6845,136 +6858,136 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="159" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
         <v>2</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="135"/>
+      <c r="E36" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="137"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
+      <c r="A37" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="154"/>
-      <c r="D38" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="167"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="169"/>
+      <c r="A39" s="169"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="167"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="169"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="166"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
@@ -6991,32 +7004,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="135"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="167"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
         <v>2</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
+        <v>37</v>
+      </c>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7078,7 +7091,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7091,7 +7104,7 @@
     <col min="6" max="6" width="17.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" style="10" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
@@ -7109,7 +7122,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="110" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7197,18 +7210,18 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
+      <c r="A6" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -7218,19 +7231,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>119</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7239,10 +7252,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7275,34 +7288,34 @@
       <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
-      <c r="A10" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
+      <c r="A10" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>119</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7311,10 +7324,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7325,26 +7338,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="E12" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" s="49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7353,13 +7366,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>2</v>
@@ -7372,7 +7385,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7381,13 +7394,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>2</v>
@@ -7400,7 +7413,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -7409,26 +7422,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="53" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
@@ -20,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0301MM1!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -255,22 +260,6 @@
   </si>
   <si>
     <t>連結</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0301_帳號設定 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -782,6 +771,22 @@
   <si>
     <t>將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 1</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0301_帳號設定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2853,7 +2858,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="4247" y="0"/>
-          <a:ext cx="10018568" cy="502227"/>
+          <a:ext cx="10029825" cy="504825"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3359,13 +3364,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>175780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>750743</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3378,7 +3383,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3386,6 +3391,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3419,7 +3435,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3427,6 +3443,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3465,7 +3492,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3473,6 +3500,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5485,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5521,22 +5559,22 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
@@ -5546,7 +5584,7 @@
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
@@ -5679,16 +5717,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5704,10 +5742,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5840,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5857,7 +5895,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
       <c r="M1" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5961,7 +5999,7 @@
       <c r="D9" s="105"/>
       <c r="E9" s="105"/>
       <c r="F9" s="106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
@@ -6024,7 +6062,7 @@
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A13" s="104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="105"/>
       <c r="C13" s="105"/>
@@ -6058,7 +6096,7 @@
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
       <c r="A15" s="117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -6074,7 +6112,7 @@
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="106"/>
       <c r="C16" s="106"/>
@@ -6110,7 +6148,7 @@
     <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
     <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="99"/>
       <c r="C38" s="99"/>
@@ -6127,7 +6165,7 @@
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="106"/>
       <c r="C40" s="106"/>
@@ -6181,19 +6219,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6244,7 +6282,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -6459,7 +6497,7 @@
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
       <c r="A11" s="135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="136"/>
       <c r="C11" s="136"/>
@@ -6487,7 +6525,7 @@
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
       <c r="A13" s="147" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="106"/>
       <c r="C13" s="106"/>
@@ -6515,7 +6553,7 @@
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="139"/>
       <c r="C15" s="139"/>
@@ -6529,13 +6567,13 @@
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="C16" s="141" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>73</v>
       </c>
       <c r="D16" s="142"/>
       <c r="E16" s="142"/>
@@ -6550,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="145"/>
@@ -6568,10 +6606,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="145"/>
@@ -6586,10 +6624,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="145"/>
@@ -6604,10 +6642,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
@@ -6633,7 +6671,7 @@
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
       <c r="A22" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="139"/>
       <c r="C22" s="139"/>
@@ -6647,13 +6685,13 @@
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="C23" s="141" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="142"/>
       <c r="E23" s="142"/>
@@ -6668,10 +6706,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="145"/>
       <c r="E24" s="145"/>
@@ -6686,10 +6724,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="145"/>
       <c r="E25" s="145"/>
@@ -6704,10 +6742,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="145"/>
       <c r="E26" s="145"/>
@@ -6722,10 +6760,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="144" t="s">
         <v>82</v>
-      </c>
-      <c r="C27" s="144" t="s">
-        <v>83</v>
       </c>
       <c r="D27" s="145"/>
       <c r="E27" s="145"/>
@@ -6749,7 +6787,7 @@
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="175"/>
       <c r="C29" s="175"/>
@@ -6763,19 +6801,19 @@
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="C30" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="D30" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="E30" s="159" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" s="159" t="s">
-        <v>91</v>
       </c>
       <c r="F30" s="160"/>
       <c r="G30" s="160"/>
@@ -6790,12 +6828,12 @@
         <v>1</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
       <c r="E31" s="161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="162"/>
       <c r="G31" s="162"/>
@@ -6817,7 +6855,7 @@
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
       <c r="A33" s="172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="173"/>
       <c r="C33" s="173"/>
@@ -6858,14 +6896,14 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="86"/>
       <c r="E35" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="162"/>
       <c r="G35" s="162"/>
@@ -6878,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>31</v>
@@ -7122,7 +7160,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7211,7 +7249,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="178"/>
       <c r="C6" s="178"/>
@@ -7231,19 +7269,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>115</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7252,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>116</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>117</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7289,7 +7327,7 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A10" s="180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="181"/>
       <c r="C10" s="181"/>
@@ -7303,19 +7341,19 @@
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>115</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7324,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>116</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>117</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7338,26 +7376,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7366,13 +7404,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>2</v>
@@ -7385,7 +7423,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7394,13 +7432,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>2</v>
@@ -7413,7 +7451,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -7422,26 +7460,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>68</v>
-      </c>
       <c r="E15" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="G15" s="53" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -672,12 +672,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -737,14 +731,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>輸入型態:string
-最小長度限制:英8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，並將cursor停留於該欄位且顏色反橘。
-確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "舊密碼輸入不正確，請再試一次或聯絡密碼管理者"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -752,20 +738,6 @@
     <t>輸入型態:string
 最大長度限制:中文20(控制項控制)
 密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "密碼提示和新密碼必須不相同"，並將cursor停留於該欄位且顏色反橘</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最小長度限制:英文8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 35，，並將cursor停留於該欄位且顏色反橘。
-必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
-必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "帳號、密碼不得相同"，並將cursor停留於該欄位且顏色反橘。
-新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼不得與前次相同"，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -787,6 +759,34 @@
       <t>總表</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+為必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英文8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。
+必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
+必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。
+確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "帳號、密碼不得相同"。
+新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼不得與前次相同"。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1560,6 +1560,66 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,65 +1629,119 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1638,6 +1752,15 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1669,129 +1792,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3364,11 +3364,11 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>175780</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>750743</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -3421,8 +3421,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5523,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5559,14 +5559,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
@@ -5878,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5894,237 +5894,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="101" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="111"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="111"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A16" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
@@ -6150,37 +6150,45 @@
       <c r="A38" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1"/>
     <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="107"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -6197,14 +6205,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6255,8 +6255,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6281,15 +6281,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="110" t="s">
-        <v>117</v>
+      <c r="P1" s="101" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="111"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="111"/>
+      <c r="P3" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6338,8 +6338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:J35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6369,7 +6369,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="8"/>
@@ -6390,7 +6390,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6403,7 +6403,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6418,152 +6418,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -6572,16 +6572,16 @@
       <c r="B16" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -6590,16 +6590,16 @@
       <c r="B17" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="144" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="C17" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
@@ -6608,16 +6608,16 @@
       <c r="B18" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="144" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
+      <c r="C18" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
@@ -6626,16 +6626,16 @@
       <c r="B19" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="C19" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -6644,44 +6644,44 @@
       <c r="B20" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="C20" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -6690,16 +6690,16 @@
       <c r="B23" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6708,16 +6708,16 @@
       <c r="B24" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="144" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="C24" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6726,16 +6726,16 @@
       <c r="B25" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="C25" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6744,16 +6744,16 @@
       <c r="B26" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6762,16 +6762,16 @@
       <c r="B27" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6786,18 +6786,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
@@ -6812,14 +6812,14 @@
       <c r="D30" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="159" t="s">
+      <c r="E30" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6832,14 +6832,14 @@
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6854,18 +6854,18 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
@@ -6880,14 +6880,14 @@
       <c r="D34" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="159" t="s">
+      <c r="E34" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6902,14 +6902,14 @@
         <v>31</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="161" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="E35" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
@@ -6922,106 +6922,106 @@
         <v>31</v>
       </c>
       <c r="D36" s="88"/>
-      <c r="E36" s="151" t="s">
+      <c r="E36" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="151" t="s">
+      <c r="C38" s="151"/>
+      <c r="D38" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="169"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="166"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="171"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="166"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
@@ -7044,14 +7044,14 @@
       <c r="B45" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
@@ -7060,39 +7060,22 @@
       <c r="B46" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7107,11 +7090,28 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7159,7 +7159,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="101" t="s">
         <v>96</v>
       </c>
       <c r="L1" s="11"/>
@@ -7186,7 +7186,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7204,7 +7204,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7269,19 +7269,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>114</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7290,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>115</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>116</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7341,19 +7341,19 @@
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>114</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7362,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>115</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>116</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -120,10 +120,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -353,13 +349,6 @@
   <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼維護
-1.使用者輸入欲變更的密碼，系統檢核密碼強度
-2.使用者輸入密碼提示資訊，系統檢核不得與密碼相同
-3.使用者輸入密碼相關資料及完成檢核，點選儲存按鈕，系統回應新增成功訊息</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NO</t>
@@ -1294,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1560,12 +1549,39 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1581,36 +1597,12 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,14 +1612,122 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1635,6 +1735,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,154 +1771,10 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3363,14 +3346,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3415,13 +3398,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5523,7 +5506,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5531,64 +5514,64 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
       <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1">
@@ -5717,16 +5700,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5742,10 +5725,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5876,10 +5859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5894,238 +5877,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="101" t="s">
-        <v>95</v>
+      <c r="M1" s="110" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="102"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="102"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="99" t="s">
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+    </row>
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A11" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-    </row>
-    <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="112" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A13" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
-    </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-    </row>
-    <row r="14" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+    </row>
+    <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A14" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-    </row>
-    <row r="15" spans="1:13" s="43" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A15" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="115"/>
-    </row>
-    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5">
-      <c r="A16" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-    </row>
+        <v>61</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+    </row>
+    <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
+    <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
     <row r="17" s="45" customFormat="1" ht="16.5"/>
     <row r="18" s="45" customFormat="1" ht="16.5"/>
     <row r="19" s="45" customFormat="1" ht="16.5"/>
@@ -6135,53 +6088,65 @@
     <row r="23" s="45" customFormat="1" ht="16.5"/>
     <row r="24" s="45" customFormat="1" ht="16.5"/>
     <row r="25" s="45" customFormat="1" ht="16.5"/>
-    <row r="26" s="45" customFormat="1" ht="16.5"/>
+    <row r="26" s="45" customFormat="1" ht="88.5" customHeight="1"/>
     <row r="27" s="45" customFormat="1" ht="16.5"/>
-    <row r="28" s="45" customFormat="1" ht="88.5" customHeight="1"/>
+    <row r="28" s="45" customFormat="1" ht="16.5"/>
     <row r="29" s="45" customFormat="1" ht="16.5"/>
     <row r="30" s="45" customFormat="1" ht="16.5"/>
-    <row r="31" s="45" customFormat="1" ht="16.5"/>
-    <row r="32" s="45" customFormat="1" ht="16.5"/>
+    <row r="31" s="45" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="32" s="45" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="34" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="35" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="36" spans="1:12" s="45" customFormat="1" ht="16.5"/>
-    <row r="38" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+    <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
+    <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" customHeight="1"/>
+    <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
-    </row>
-    <row r="39" spans="1:12" ht="21" customHeight="1"/>
-    <row r="40" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="98" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="100"/>
+        <v>104</v>
+      </c>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A36:L36"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:L11"/>
@@ -6189,22 +6154,6 @@
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6219,19 +6168,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6249,13 +6198,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -6281,15 +6230,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="101" t="s">
-        <v>116</v>
+      <c r="P1" s="110" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="102"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="102"/>
+      <c r="P3" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6338,7 +6287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:J25"/>
     </sheetView>
   </sheetViews>
@@ -6369,8 +6318,8 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="101" t="s">
-        <v>20</v>
+      <c r="K1" s="110" t="s">
+        <v>19</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -6390,7 +6339,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6403,7 +6352,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6418,360 +6367,360 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+    </row>
+    <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
+    </row>
+    <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
-    </row>
-    <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
-    </row>
-    <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-    </row>
-    <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+    </row>
+    <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A11" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+    </row>
+    <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-    </row>
-    <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
-    </row>
-    <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+    </row>
+    <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A13" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-    </row>
-    <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-    </row>
-    <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="156"/>
+      <c r="A15" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>74</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>75</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>76</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+        <v>78</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="A21" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="A22" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="157" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+        <v>74</v>
+      </c>
+      <c r="C24" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+        <v>75</v>
+      </c>
+      <c r="C25" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+        <v>77</v>
+      </c>
+      <c r="C26" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6786,40 +6735,40 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
+      <c r="A29" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="D30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="E30" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="58"/>
       <c r="L30" s="58"/>
     </row>
@@ -6828,18 +6777,18 @@
         <v>1</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
+      <c r="E31" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="76"/>
@@ -6854,40 +6803,40 @@
       <c r="J32" s="82"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="A33" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
       <c r="A34" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="D34" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="E34" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="133" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
     </row>
@@ -6896,136 +6845,136 @@
         <v>1</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="86"/>
-      <c r="E35" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
+      <c r="E35" s="159" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="87">
         <v>2</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="137" t="s">
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="135"/>
+    </row>
+    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A37" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
-    </row>
-    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A38" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="154"/>
+      <c r="D38" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
+      <c r="A39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="169"/>
     </row>
     <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A40" s="87"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="139"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="87"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="169"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A43" s="87"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="139"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="164"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
@@ -7042,40 +6991,57 @@
         <v>1</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="165"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
       <c r="A46" s="87">
         <v>2</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7090,28 +7056,11 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7159,8 +7108,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="101" t="s">
-        <v>96</v>
+      <c r="K1" s="110" t="s">
+        <v>94</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7186,7 +7135,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7204,7 +7153,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7248,18 +7197,18 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="A6" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -7269,19 +7218,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7290,10 +7239,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7326,34 +7275,34 @@
       <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
-      <c r="A10" s="180" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
+      <c r="A10" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7362,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7376,26 +7325,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7404,13 +7353,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>2</v>
@@ -7423,7 +7372,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7432,13 +7381,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>2</v>
@@ -7451,7 +7400,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -7460,26 +7409,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="G15" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -170,54 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>用途分類</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -403,42 +355,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0301MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Global 參數</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -496,23 +412,176 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヨブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0301_帳號設定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文50(控制項控制)
+為必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>『APF0301MM1』Form</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>AccountController.ChangePassword</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginModel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>開啟APF0301MM1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>APF0301MM1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應務必完成密碼更新提示訊息，訊息內容請參考APF訊息表 APF_NO 42
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除畫面所有欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>內容說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者如初次登入或密碼已逾期者，必須更正相關資料內容，直到正確無誤完成本作業，始得離開，如中途欲離開者，系統回應務必完成密碼更新提示訊息，訊息內容請參考APF訊息表 APF_NO 01009
 其他狀況的使用者，可以選擇不完成本作業，即中途關掉本頁籤離開，回到原本選取帳號設定畫面。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -656,103 +725,31 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> APF_NO 41</t>
+      <t xml:space="preserve"> APF_NO 01008</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項型態及長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
+    <t>輸入型態:string
+最小長度限制:英8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。
+確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "舊密碼輸入不正確，請再試一次或聯絡密碼管理者"</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>輸入型態:string
 最大長度限制:中文20(控制項控制)
-密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "密碼提示和新密碼必須不相同"，並將cursor停留於該欄位且顏色反橘</t>
+密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "密碼提示和新密碼必須不相同"，並將cursor停留於該欄位且顏色反橘</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 1</t>
+    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "舊密碼輸入不正確，請再試一次或聯絡密碼管理者"</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0301_帳號設定 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文50(控制項控制)
-為必填欄位。</t>
+    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "帳號、密碼不得相同"。
+新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼不得與前次相同"。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -760,21 +757,15 @@
 最小長度限制:英文8(控制項控制)
 最大長度限制:英文50(控制項控制)
 為必填欄位。
-必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
-必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
+必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
+必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入型態:string
-最小長度限制:英8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。
-確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "帳號、密碼不得相同"。
-新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 4，@依檢核條件顯示內容為 "新密碼不得與前次相同"。</t>
+    <t>1.將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 01001
+2.呼叫 PIC C# Framework 之 API [AccountManager.ChangePassword]Method並傳入使用者SID、使用者舊密碼、使用者新密碼進入密碼變更。
+3.判斷若密碼提示欄位有值，則呼叫[APFAccountProfileManager.SetPassRemindByAccount]Method 並傳入使用者帳號、使用者密碼提示，以進行密碼提示儲存。
+4.使用 Try Catch 並將所截取之 Exception 呼叫 [ErrorLogger.Write]Method 進行錯誤紀錄。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1494,15 +1485,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1510,106 +1492,133 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,8 +1708,26 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1711,6 +1738,9 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,36 +1753,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,15 +1761,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5506,7 +5497,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5514,64 +5505,64 @@
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1">
@@ -5700,16 +5691,16 @@
     </row>
     <row r="5" spans="1:19" s="33" customFormat="1" ht="16.5">
       <c r="A5" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -5725,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D6" s="37">
         <v>41563</v>
@@ -5861,7 +5852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -5877,205 +5868,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="110" t="s">
-        <v>93</v>
+      <c r="M1" s="108" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="111"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="111"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="103"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="103"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
+      <c r="A13" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
-      <c r="A14" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
+      <c r="A14" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
@@ -6098,37 +6089,37 @@
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
     <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
+      <c r="A36" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1"/>
     <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="107"/>
+      <c r="A38" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6230,15 +6221,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="110" t="s">
-        <v>114</v>
+      <c r="P1" s="108" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="111"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="111"/>
+      <c r="P3" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6285,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6318,7 +6309,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="108" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="8"/>
@@ -6339,7 +6330,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6352,7 +6343,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6367,360 +6358,360 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="A11" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="A13" s="151" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="138"/>
+      <c r="A15" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
+        <v>57</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
         <v>1</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
+        <v>62</v>
+      </c>
+      <c r="C17" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
         <v>2</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
+        <v>63</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
         <v>3</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="142" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="138"/>
+      <c r="A22" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
+        <v>60</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
         <v>1</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
         <v>2</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
         <v>3</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+        <v>65</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="144"/>
+        <v>67</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6734,189 +6725,181 @@
       <c r="I28" s="66"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
-    </row>
-    <row r="30" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-    </row>
-    <row r="31" spans="1:12" s="58" customFormat="1" ht="33" customHeight="1">
-      <c r="A31" s="72">
+    <row r="30" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
+    </row>
+    <row r="31" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+    </row>
+    <row r="32" spans="1:12" s="58" customFormat="1" ht="84" customHeight="1">
+      <c r="A32" s="72">
         <v>1</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B32" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="159" t="s">
+      <c r="C32" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
-    </row>
-    <row r="32" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-    </row>
-    <row r="33" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A33" s="170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
-    </row>
-    <row r="34" spans="1:12" s="83" customFormat="1" ht="16.5">
-      <c r="A34" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="157" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-    </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A35" s="62">
+      <c r="D32" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+    </row>
+    <row r="33" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="1:12" s="58" customFormat="1" ht="15.75">
+      <c r="A34" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="161"/>
+    </row>
+    <row r="35" spans="1:12" s="80" customFormat="1" ht="16.5">
+      <c r="A35" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+    </row>
+    <row r="36" spans="1:12" s="58" customFormat="1" ht="177.75" customHeight="1">
+      <c r="A36" s="62">
         <v>1</v>
       </c>
-      <c r="B35" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="159" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-    </row>
-    <row r="36" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A36" s="87">
+      <c r="B36" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="155" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+    </row>
+    <row r="37" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A37" s="83">
         <v>2</v>
       </c>
-      <c r="B36" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="135"/>
-    </row>
-    <row r="37" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A37" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
-    </row>
-    <row r="38" spans="1:12" s="58" customFormat="1" ht="31.5">
-      <c r="A38" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="154"/>
-      <c r="D38" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
-    </row>
-    <row r="39" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A39" s="167"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
+      <c r="B37" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="141"/>
+    </row>
+    <row r="38" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A38" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="164"/>
+    </row>
+    <row r="39" spans="1:12" s="58" customFormat="1" ht="31.5">
+      <c r="A39" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="167"/>
+      <c r="D39" s="122" t="s">
+        <v>112</v>
+      </c>
       <c r="E39" s="168"/>
       <c r="F39" s="168"/>
       <c r="G39" s="168"/>
@@ -6924,124 +6907,147 @@
       <c r="I39" s="168"/>
       <c r="J39" s="169"/>
     </row>
-    <row r="40" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A40" s="87"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+    <row r="40" spans="1:12" s="60" customFormat="1" ht="16.5">
+      <c r="A40" s="170"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A41" s="87"/>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
-    </row>
-    <row r="42" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A42" s="167"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="169"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A43" s="87"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="164"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="124"/>
+    </row>
+    <row r="42" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A42" s="83"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="124"/>
+    </row>
+    <row r="43" spans="1:12" s="60" customFormat="1" ht="16.5">
+      <c r="A43" s="170"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="172"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A44" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="124"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A45" s="87">
+      <c r="A45" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+    </row>
+    <row r="46" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A46" s="83">
         <v>1</v>
       </c>
-      <c r="B45" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="135"/>
-    </row>
-    <row r="46" spans="1:12" s="94" customFormat="1" ht="16.5">
-      <c r="A46" s="87">
+      <c r="B46" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="165"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="141"/>
+    </row>
+    <row r="47" spans="1:12" s="89" customFormat="1" ht="16.5">
+      <c r="A47" s="83">
         <v>2</v>
       </c>
-      <c r="B46" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
+      <c r="B47" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="E37:J37"/>
     <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A33:J33"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -7050,17 +7056,6 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7108,8 +7103,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="110" t="s">
-        <v>94</v>
+      <c r="K1" s="108" t="s">
+        <v>73</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7135,7 +7130,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7153,7 +7148,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="111"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7198,7 +7193,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="175" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B6" s="176"/>
       <c r="C6" s="176"/>
@@ -7218,19 +7213,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7239,10 +7234,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7276,7 +7271,7 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A10" s="178" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B10" s="179"/>
       <c r="C10" s="179"/>
@@ -7290,19 +7285,19 @@
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7311,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7325,26 +7320,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7353,13 +7348,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>2</v>
@@ -7372,7 +7367,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7381,13 +7376,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>2</v>
@@ -7400,7 +7395,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J14" s="53"/>
     </row>
@@ -7409,26 +7404,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H15" s="53"/>
       <c r="I15" s="47" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J15" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -341,10 +341,6 @@
   <si>
     <t>確認密碼</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>密碼提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>密碼提示</t>
@@ -730,42 +726,46 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1.將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 01001
+2.呼叫 PIC C# Framework 之 API [AccountManager.ChangePassword]Method並傳入使用者SID、使用者舊密碼、使用者新密碼進入密碼變更。
+3.判斷若密碼提示欄位有值，則呼叫[APFAccountProfileManager.SetPassRemindByAccount]Method 並傳入使用者帳號、使用者密碼提示，以進行密碼提示儲存。
+4.使用 Try Catch 並將所截取之 Exception 呼叫 [ErrorLogger.Write]Method 進行錯誤紀錄。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>密碼提示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最小長度限制:英文8(控制項控制)
+最大長度限制:英文50(控制項控制)
+為必填欄位。
+必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01012
+必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01013</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>輸入型態:string
 最小長度限制:英8(控制項控制)
 最大長度限制:英文50(控制項控制)
 為必填欄位。
-確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 「確認密碼欄位和新密碼必須相同」</t>
+確認密碼必須和新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01014</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>輸入型態:string
 最大長度限制:中文20(控制項控制)
-密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "密碼提示和新密碼必須不相同"，並將cursor停留於該欄位且顏色反橘</t>
+密碼提示不可與新密碼相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01015</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "舊密碼輸入不正確，請再試一次或聯絡密碼管理者"</t>
+    <t>輸入之舊密碼必須存在於APF Core_User資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01016</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "帳號、密碼不得相同"。
-新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼不得與前次相同"。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最小長度限制:英文8(控制項控制)
-最大長度限制:英文50(控制項控制)
-為必填欄位。
-必須是八碼以上，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼長度必須是八碼以上"並將cursor停留於該欄位且顏色反橘。
-必須是英數字夾雜，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01004，@依檢核條件顯示內容為 "新密碼必須是英數字夾雜"，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.將已檢核無誤的密碼相關資料存入DB並顯示變更成功訊息及執行系統紀錄更新Log(DB)，訊息內容請參考APF訊息表APF_NO 01001
-2.呼叫 PIC C# Framework 之 API [AccountManager.ChangePassword]Method並傳入使用者SID、使用者舊密碼、使用者新密碼進入密碼變更。
-3.判斷若密碼提示欄位有值，則呼叫[APFAccountProfileManager.SetPassRemindByAccount]Method 並傳入使用者帳號、使用者密碼提示，以進行密碼提示儲存。
-4.使用 Try Catch 並將所截取之 Exception 呼叫 [ErrorLogger.Write]Method 進行錯誤紀錄。</t>
+    <t>新密碼不得與帳號相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01017
+新密碼不得與前次相同，若有誤，出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 01018</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1537,70 +1537,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,6 +1636,66 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1663,12 +1741,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1687,85 +1759,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4552,25 +4552,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>27087</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1335822</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="圖片 116"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4583,8 +4583,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42334" y="852587"/>
-          <a:ext cx="4773083" cy="3527386"/>
+          <a:off x="0" y="866776"/>
+          <a:ext cx="4772025" cy="3579019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5497,7 +5497,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickBot="1">
       <c r="A1" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -5533,22 +5533,22 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="26" t="s">
@@ -5558,7 +5558,7 @@
     <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="27" t="s">
@@ -5868,205 +5868,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="108" t="s">
-        <v>72</v>
+      <c r="M1" s="101" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="109"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="109"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="112" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="101"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100" t="s">
+      <c r="A13" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
@@ -6089,40 +6089,46 @@
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
     <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="119"/>
+      <c r="A36" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="118"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1"/>
     <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="101"/>
+      <c r="A38" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A38:L38"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -6139,12 +6145,6 @@
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A36:L36"/>
     <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6221,15 +6221,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="108" t="s">
-        <v>89</v>
+      <c r="P1" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="109"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="109"/>
+      <c r="P3" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6278,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6309,7 +6309,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="101" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="8"/>
@@ -6330,7 +6330,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="109"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6343,7 +6343,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="109"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6358,152 +6358,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="128"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="161"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="A11" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="A13" s="172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -6512,16 +6512,16 @@
       <c r="B16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -6530,16 +6530,16 @@
       <c r="B17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="C17" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
@@ -6548,16 +6548,16 @@
       <c r="B18" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
+      <c r="C18" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
@@ -6566,62 +6566,62 @@
       <c r="B19" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="148" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
+      <c r="C19" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
         <v>4</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
+        <v>117</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="142"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="152" t="s">
+      <c r="A21" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+      <c r="A22" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -6630,16 +6630,16 @@
       <c r="B23" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6648,16 +6648,16 @@
       <c r="B24" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="148" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="C24" s="140" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="142"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6666,16 +6666,16 @@
       <c r="B25" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+      <c r="C25" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="142"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6684,34 +6684,34 @@
       <c r="B26" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="C26" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="142"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
         <v>4</v>
       </c>
       <c r="B27" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="142"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6726,40 +6726,40 @@
       <c r="J28" s="67"/>
     </row>
     <row r="30" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="A30" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
     </row>
     <row r="31" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="C31" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="D31" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="E31" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
     </row>
@@ -6768,22 +6768,22 @@
         <v>1</v>
       </c>
       <c r="B32" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="D32" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="E32" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="76"/>
@@ -6798,40 +6798,40 @@
       <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A34" s="159" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
+      <c r="A34" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
     </row>
     <row r="35" spans="1:12" s="80" customFormat="1" ht="16.5">
       <c r="A35" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="C35" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="D35" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="E35" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
     </row>
@@ -6840,136 +6840,136 @@
         <v>1</v>
       </c>
       <c r="B36" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="82" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="93"/>
-      <c r="E36" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
+      <c r="E36" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A37" s="83">
         <v>2</v>
       </c>
       <c r="B37" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="122" t="s">
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="125"/>
+    </row>
+    <row r="38" spans="1:12" s="58" customFormat="1" ht="16.5">
+      <c r="A38" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="141"/>
-    </row>
-    <row r="38" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A38" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
     </row>
     <row r="39" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A39" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="132"/>
+      <c r="D39" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="169"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
     </row>
     <row r="40" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A40" s="170"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="137"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="83"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="130"/>
     </row>
     <row r="42" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A42" s="83"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="124"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="130"/>
     </row>
     <row r="43" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A43" s="170"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="172"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="137"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="83"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="124"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A45" s="84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" s="85"/>
       <c r="C45" s="86"/>
@@ -6986,62 +6986,35 @@
         <v>1</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="141"/>
+        <v>113</v>
+      </c>
+      <c r="C46" s="123"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="125"/>
     </row>
     <row r="47" spans="1:12" s="89" customFormat="1" ht="16.5">
       <c r="A47" s="83">
         <v>2</v>
       </c>
       <c r="B47" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
+        <v>113</v>
+      </c>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
@@ -7056,6 +7029,33 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7103,8 +7103,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="108" t="s">
-        <v>73</v>
+      <c r="K1" s="101" t="s">
+        <v>72</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -7130,7 +7130,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="109"/>
+      <c r="K2" s="102"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7148,7 +7148,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="109"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="176"/>
       <c r="C6" s="176"/>
@@ -7213,19 +7213,19 @@
     </row>
     <row r="7" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>3</v>
@@ -7234,10 +7234,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>0</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="10" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A10" s="178" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="179"/>
       <c r="C10" s="179"/>
@@ -7285,19 +7285,19 @@
     </row>
     <row r="11" spans="1:23" s="45" customFormat="1" ht="16.5">
       <c r="A11" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="D11" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>3</v>
@@ -7306,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>88</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>0</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="52"/>
     </row>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="55"/>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="53"/>
     </row>

--- a/APF/RA006/RA006_APF0301_帳號設定.xlsx
+++ b/APF/RA006/RA006_APF0301_帳號設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="34" r:id="rId1"/>
@@ -1537,15 +1537,36 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,30 +1582,12 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1600,8 +1603,125 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1615,21 +1735,12 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1655,117 +1766,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3343,8 +3343,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5852,7 +5852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -5868,205 +5868,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1">
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="108" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="102"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="9" customHeight="1">
-      <c r="M3" s="102"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="105" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="99" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:13" s="44" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="99" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="119" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="119" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:13" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:13" s="45" customFormat="1" ht="16.5">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:13" s="45" customFormat="1" ht="16.5"/>
     <row r="16" spans="1:13" s="45" customFormat="1" ht="16.5"/>
@@ -6089,46 +6089,40 @@
     <row r="33" spans="1:12" s="45" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="34" spans="1:12" s="45" customFormat="1" ht="16.5"/>
     <row r="36" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="118"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1"/>
     <row r="38" spans="1:12" s="45" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
     <mergeCell ref="A38:L38"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A8:E8"/>
@@ -6145,6 +6139,12 @@
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A36:L36"/>
     <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6170,8 +6170,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6221,15 +6221,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="108" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="102"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="102"/>
+      <c r="P3" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6278,7 +6278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:J26"/>
     </sheetView>
   </sheetViews>
@@ -6309,7 +6309,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="108" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="8"/>
@@ -6330,7 +6330,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1">
       <c r="A3" s="15"/>
@@ -6343,7 +6343,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1">
       <c r="A4" s="15"/>
@@ -6358,152 +6358,152 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:17" s="57" customFormat="1" ht="16.5">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="158"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
       <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" ht="15.75">
-      <c r="A8" s="158"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
     </row>
     <row r="10" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="60" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="60" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -6512,16 +6512,16 @@
       <c r="B16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="1:12" s="58" customFormat="1" ht="66.75" customHeight="1">
       <c r="A17" s="62">
@@ -6530,16 +6530,16 @@
       <c r="B17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="1:12" s="58" customFormat="1" ht="152.25" customHeight="1">
       <c r="A18" s="62">
@@ -6548,16 +6548,16 @@
       <c r="B18" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="1:12" s="58" customFormat="1" ht="116.25" customHeight="1">
       <c r="A19" s="62">
@@ -6566,16 +6566,16 @@
       <c r="B19" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="58" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="62">
@@ -6584,44 +6584,44 @@
       <c r="B20" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:12" s="58" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:12" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="61" t="s">
@@ -6630,16 +6630,16 @@
       <c r="B23" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="169" t="s">
+      <c r="C23" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="142"/>
     </row>
     <row r="24" spans="1:12" s="58" customFormat="1" ht="36.75" customHeight="1">
       <c r="A24" s="62">
@@ -6648,16 +6648,16 @@
       <c r="B24" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="142"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="145"/>
     </row>
     <row r="25" spans="1:12" s="58" customFormat="1" ht="69.75" customHeight="1">
       <c r="A25" s="62">
@@ -6666,16 +6666,16 @@
       <c r="B25" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="142"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="1:12" s="58" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="62">
@@ -6684,16 +6684,16 @@
       <c r="B26" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="142"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="1:12" s="58" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="62">
@@ -6702,16 +6702,16 @@
       <c r="B27" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="142"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="63"/>
@@ -6726,18 +6726,18 @@
       <c r="J28" s="67"/>
     </row>
     <row r="30" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="1:12" s="60" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="68" t="s">
@@ -6752,14 +6752,14 @@
       <c r="D31" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="138" t="s">
+      <c r="E31" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
     </row>
@@ -6776,14 +6776,14 @@
       <c r="D32" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="146" t="s">
+      <c r="E32" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
     </row>
     <row r="33" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="76"/>
@@ -6798,18 +6798,18 @@
       <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:12" s="58" customFormat="1" ht="15.75">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:12" s="80" customFormat="1" ht="16.5">
       <c r="A35" s="68" t="s">
@@ -6824,14 +6824,14 @@
       <c r="D35" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="138" t="s">
+      <c r="E35" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
     </row>
@@ -6846,14 +6846,14 @@
         <v>106</v>
       </c>
       <c r="D36" s="93"/>
-      <c r="E36" s="146" t="s">
+      <c r="E36" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
     </row>
     <row r="37" spans="1:12" s="58" customFormat="1" ht="19.5" customHeight="1">
       <c r="A37" s="83">
@@ -6866,106 +6866,106 @@
         <v>106</v>
       </c>
       <c r="D37" s="90"/>
-      <c r="E37" s="128" t="s">
+      <c r="E37" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="136"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="16.5">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="162"/>
     </row>
     <row r="39" spans="1:12" s="58" customFormat="1" ht="31.5">
       <c r="A39" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="131" t="s">
+      <c r="B39" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="128" t="s">
+      <c r="C39" s="169"/>
+      <c r="D39" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A40" s="135"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="137"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
     </row>
     <row r="41" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A41" s="83"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="130"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
     </row>
     <row r="42" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A42" s="83"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="130"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="167"/>
     </row>
     <row r="43" spans="1:12" s="60" customFormat="1" ht="16.5">
-      <c r="A43" s="135"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="174"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A44" s="83"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="167"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="16.5">
       <c r="A45" s="84" t="s">
@@ -6988,14 +6988,14 @@
       <c r="B46" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="125"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="136"/>
     </row>
     <row r="47" spans="1:12" s="89" customFormat="1" ht="16.5">
       <c r="A47" s="83">
@@ -7004,17 +7004,42 @@
       <c r="B47" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A34:J34"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
@@ -7031,31 +7056,6 @@
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7103,7 +7103,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="108" t="s">
         <v>72</v>
       </c>
       <c r="L1" s="11"/>
@@ -7130,7 +7130,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="102"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7148,7 +7148,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
